--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject42.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject42.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,16 +131,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.78405351687826141</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
       </c>
       <c r="E1" s="0">
-        <v>0</v>
+        <v>0.59758643600843864</v>
       </c>
       <c r="F1" s="0">
         <v>0</v>
@@ -170,7 +170,7 @@
         <v>0</v>
       </c>
       <c r="O1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" s="0">
         <v>0</v>
@@ -209,7 +209,7 @@
         <v>0</v>
       </c>
       <c r="AB1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC1" s="0">
         <v>0</v>
@@ -221,7 +221,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="0">
-        <v>0</v>
+        <v>0.80301931061786946</v>
       </c>
       <c r="AG1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -275,10 +275,10 @@
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>0</v>
+        <v>0.82169789371593582</v>
       </c>
       <c r="AY1" s="0">
-        <v>0</v>
+        <v>0.97885466688809863</v>
       </c>
       <c r="AZ1" s="0">
         <v>0</v>
@@ -302,7 +302,7 @@
         <v>0</v>
       </c>
       <c r="BG1" s="0">
-        <v>0</v>
+        <v>0.59166539824566833</v>
       </c>
       <c r="BH1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.68842016031296516</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.53045372239846889</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0</v>
+        <v>0.57005010366781361</v>
       </c>
       <c r="S2" s="0">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="0">
-        <v>0</v>
+        <v>0.92254006576397118</v>
       </c>
       <c r="AH2" s="0">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="0">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.51478494820437082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.62669929296129212</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>0.80909279966027858</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0</v>
+        <v>0.52756837470321982</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0</v>
+        <v>0.77500077425108116</v>
       </c>
     </row>
     <row r="4">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.80337072208117632</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>0</v>
+        <v>0.66201967196798495</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="0">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="0">
         <v>0</v>
@@ -947,12 +947,12 @@
         <v>0</v>
       </c>
       <c r="BP4" s="0">
-        <v>0</v>
+        <v>0.97039622529114755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>0.59779730578045021</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0</v>
+        <v>0.96728127051647372</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="0">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0</v>
+        <v>0.85675640030282041</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0</v>
+        <v>0.94884253355759607</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="0">
-        <v>0</v>
+        <v>0.6538216008651162</v>
       </c>
       <c r="BF5" s="0">
         <v>0</v>
@@ -1164,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.8517473697415312</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="0">
-        <v>1</v>
+        <v>0.57123557697429783</v>
       </c>
       <c r="AN6" s="0">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>0</v>
+        <v>0.687067849583054</v>
       </c>
       <c r="BD6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="0">
         <v>0</v>
       </c>
       <c r="BF6" s="0">
-        <v>0</v>
+        <v>0.9615317702004722</v>
       </c>
       <c r="BG6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.95984167792591757</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>0</v>
+        <v>0.65508691157727483</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.77895825286848464</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>0</v>
+        <v>0.86706256649275826</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="0">
-        <v>0</v>
+        <v>0.65253288402310905</v>
       </c>
       <c r="BD8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.78699567362860545</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>0</v>
+        <v>0.90681778994035156</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0</v>
+        <v>0.56681824668536218</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AS9" s="0">
-        <v>0</v>
+        <v>0.95918956593122906</v>
       </c>
       <c r="AT9" s="0">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="0">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="BI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="0">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.99118797958950844</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>0</v>
+        <v>0.68778201325295907</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AY10" s="0">
-        <v>0</v>
+        <v>0.87977116645278519</v>
       </c>
       <c r="AZ10" s="0">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="0">
-        <v>0</v>
+        <v>0.86101212977210873</v>
       </c>
       <c r="AP11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>0</v>
+        <v>0.86677115201483756</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0.57447489677398234</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="0">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>0.75094381675418398</v>
       </c>
       <c r="H12" s="0">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="0">
-        <v>0</v>
+        <v>0.89562882902271057</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="BO12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>0</v>
+        <v>0.78434071302692332</v>
       </c>
     </row>
     <row r="13">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>0.79230323661503865</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0</v>
+        <v>0.5911711930941681</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0</v>
+        <v>0.71002565883702262</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>0</v>
+        <v>0.60408676539720019</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>0</v>
+        <v>0.70615433245339643</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.6834968814075314</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>0</v>
+        <v>0.55145202669953297</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3012,40 +3012,40 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>0.56474051307046746</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.94173194022615414</v>
       </c>
       <c r="F15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0">
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0</v>
+        <v>0.77866679472433553</v>
       </c>
       <c r="M15" s="0">
         <v>0</v>
@@ -3072,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="U15" s="0">
-        <v>1</v>
+        <v>0.84044430975469719</v>
       </c>
       <c r="V15" s="0">
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0</v>
+        <v>0.88641068953430524</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0</v>
+        <v>0.85259468441514374</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AL16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="0">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>0</v>
+        <v>0.55440271032999877</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0</v>
+        <v>0.73324890702731338</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0</v>
+        <v>0.54131217553606004</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3457,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>0.9470720371440704</v>
       </c>
       <c r="N17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="0">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="0">
-        <v>0</v>
+        <v>0.51485657460185164</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>0.94746298503938653</v>
       </c>
       <c r="C18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.89672658565848085</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.83359692696490506</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0</v>
+        <v>0.82159452181616333</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="AH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.59652659251650242</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.99287210445768448</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3947,13 +3947,13 @@
         <v>0</v>
       </c>
       <c r="AL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="0">
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>0</v>
+        <v>0.77850311036455055</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="0">
-        <v>0</v>
+        <v>0.86569761977774073</v>
       </c>
       <c r="AU19" s="0">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.81072969779812953</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4090,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.85409516032612076</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.57360286290169815</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.54685705934651219</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0</v>
+        <v>0.67645041488425806</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>0</v>
+        <v>0.64283311307821944</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>1</v>
+        <v>0.81428165555701248</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0</v>
+        <v>0.56949788865070439</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.96514072177198051</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="0">
-        <v>0</v>
+        <v>0.77482416402516929</v>
       </c>
       <c r="AS21" s="0">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="0">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="BO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.91213886375376685</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0</v>
+        <v>0.73631207421734013</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0">
         <v>0</v>
@@ -4589,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="AT22" s="0">
-        <v>0</v>
+        <v>0.84571978618530297</v>
       </c>
       <c r="AU22" s="0">
         <v>0</v>
       </c>
       <c r="AV22" s="0">
-        <v>0</v>
+        <v>0.69073916590907647</v>
       </c>
       <c r="AW22" s="0">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0</v>
+        <v>0.94967184082066214</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0</v>
+        <v>0.65830148335971939</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0</v>
+        <v>0.76616504940759766</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.83661554293041607</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4756,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="AG23" s="0">
-        <v>0</v>
+        <v>0.73863565601933034</v>
       </c>
       <c r="AH23" s="0">
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>1</v>
+        <v>0.56132822492234258</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.53728381541060743</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0</v>
+        <v>0.58547547981760872</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="0">
         <v>0</v>
@@ -5022,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="0">
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0</v>
+        <v>0.86919225506915421</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5049,22 +5049,22 @@
         <v>0</v>
       </c>
       <c r="BJ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" s="0">
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0</v>
+        <v>0.76377590004002804</v>
       </c>
       <c r="BM24" s="0">
-        <v>0</v>
+        <v>0.94333611671655426</v>
       </c>
       <c r="BN24" s="0">
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5132,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="U25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0</v>
+        <v>0.77514875445542819</v>
       </c>
       <c r="W25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0</v>
+        <v>0.91627332531431427</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0</v>
+        <v>0.5867305384925432</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.74510408753130308</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>0</v>
+        <v>0.73574079293336925</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
+        <v>0.97073205289174425</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.9426621410009155</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.68151341350954053</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="0">
-        <v>0</v>
+        <v>0.95663424672852027</v>
       </c>
       <c r="BK27" s="0">
         <v>0</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.97193850274084381</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.92826948824501754</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.90815273547913078</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="0">
         <v>0</v>
@@ -5807,22 +5807,22 @@
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="0">
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>0</v>
+        <v>0.55949712585459654</v>
       </c>
       <c r="AQ28" s="0">
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>1</v>
+        <v>0.74713085718415329</v>
       </c>
       <c r="AS28" s="0">
-        <v>0</v>
+        <v>0.59181247505603518</v>
       </c>
       <c r="AT28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5908,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>0</v>
+        <v>0.75207345912277201</v>
       </c>
       <c r="U29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.98985795421185951</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>0</v>
+        <v>0.61768615716808517</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>1</v>
+        <v>0.80180640969890837</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6201,13 +6201,13 @@
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>0</v>
+        <v>0.91062598649110016</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>0</v>
+        <v>0.68572042406623446</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="BA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30" s="0">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0</v>
+        <v>0.59389452930071562</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0.8009054719499249</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>0</v>
+        <v>0.63706106458433576</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>0.56291886566277949</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6535,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.91838705368758999</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>0</v>
+        <v>0.78885428901921895</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.86730658681722239</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>0</v>
+        <v>0.83493934134768955</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6697,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0</v>
+        <v>0.72772279462049894</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>0.65673325667019333</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6786,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="0">
-        <v>0</v>
+        <v>0.98927994514252404</v>
       </c>
       <c r="X33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>0</v>
+        <v>0.90522954804649713</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="BL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM33" s="0">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
@@ -7010,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>0</v>
+        <v>0.96554567572919014</v>
       </c>
       <c r="AD34" s="0">
-        <v>0</v>
+        <v>0.81971027623215131</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.81387661302750325</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
       </c>
       <c r="AL34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>1</v>
+        <v>0.86090870385139895</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="BC34" s="0">
-        <v>0</v>
+        <v>0.95491857421502235</v>
       </c>
       <c r="BD34" s="0">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="0">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.98250125232807162</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7312,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0</v>
+        <v>0.92645941357219852</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0</v>
+        <v>0.7530455762722077</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0</v>
+        <v>0.78654805976053199</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.84046922361874044</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="0">
-        <v>0</v>
+        <v>0.88401793400965112</v>
       </c>
       <c r="AX36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0</v>
+        <v>0.52325762973619194</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="0">
         <v>0</v>
@@ -7625,16 +7625,16 @@
         <v>0</v>
       </c>
       <c r="AB37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>1</v>
+        <v>0.94059455697466121</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>0</v>
+        <v>0.92306193988050789</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.84906920826991072</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.77856605225775644</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0</v>
+        <v>0.9294351691608016</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7721,10 +7721,10 @@
         <v>0</v>
       </c>
       <c r="BH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0</v>
+        <v>0.58135084237792856</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0">
         <v>0</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="S38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.58061988461737379</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.84360554934918164</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>1</v>
+        <v>0.78326645442414777</v>
       </c>
       <c r="G39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.83932317719066007</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.56149537992186971</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.60906569935920629</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.5735290172126255</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0</v>
+        <v>0.57041747846158664</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="BD39" s="0">
-        <v>0</v>
+        <v>0.73986401806688429</v>
       </c>
       <c r="BE39" s="0">
         <v>0</v>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="0">
-        <v>0</v>
+        <v>0.96741591517535097</v>
       </c>
       <c r="T40" s="0">
         <v>0</v>
@@ -8237,13 +8237,13 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.98817780409563472</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8392,13 +8392,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
+        <v>0.61735360173977694</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0</v>
+        <v>0.50894282139021396</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.80185803616622298</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8518,13 +8518,13 @@
         <v>0</v>
       </c>
       <c r="AY41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="0">
         <v>0</v>
       </c>
       <c r="BA41" s="0">
-        <v>0</v>
+        <v>0.98355415297505355</v>
       </c>
       <c r="BB41" s="0">
         <v>0</v>
@@ -8563,13 +8563,13 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.57917007187204095</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>0</v>
+        <v>0.76904217382832996</v>
       </c>
     </row>
     <row r="42">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>0.68654410729100401</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0</v>
+        <v>0.77812482283434425</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>0</v>
+        <v>0.62390801284578123</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8700,13 +8700,13 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
       </c>
       <c r="AS42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>0</v>
+        <v>0.5730776652231675</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>0</v>
+        <v>0.65119899852414775</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8986,10 +8986,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>0</v>
+        <v>0.50253263864357467</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="0">
-        <v>0</v>
+        <v>0.87283109383564639</v>
       </c>
       <c r="V44" s="0">
         <v>0</v>
@@ -9067,13 +9067,13 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>1</v>
+        <v>0.70614142965586679</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0</v>
+        <v>0.59943785823108131</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>1</v>
+        <v>0.80534287320468079</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="BC44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>0</v>
+        <v>0.53278794254276618</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>0</v>
+        <v>0.85048145273842735</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="0">
-        <v>0</v>
+        <v>0.72261613903606592</v>
       </c>
       <c r="Q45" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0</v>
+        <v>0.55234861982253913</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.5261613010135151</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9315,10 +9315,10 @@
         <v>0</v>
       </c>
       <c r="AP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9381,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="BL45" s="0">
-        <v>0</v>
+        <v>0.9666462733597746</v>
       </c>
       <c r="BM45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0</v>
+        <v>0.62629386120307207</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>0</v>
+        <v>0.59788017055756404</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>0</v>
+        <v>0.73738757560700274</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0</v>
+        <v>0.89308908639272688</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0</v>
+        <v>0.84009202681403949</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0</v>
+        <v>0.6698361146453008</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>0</v>
+        <v>0.73794405119331186</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.80476072514140351</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>0</v>
+        <v>0.51719232618605548</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9855,10 +9855,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0</v>
+        <v>0.7141010141599452</v>
       </c>
       <c r="Q48" s="0">
-        <v>0</v>
+        <v>0.97009570216586383</v>
       </c>
       <c r="R48" s="0">
         <v>0</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="0">
-        <v>0</v>
+        <v>0.80864349320828155</v>
       </c>
       <c r="W48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0.85343043754124626</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="0">
         <v>0</v>
@@ -10076,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" s="0">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0</v>
+        <v>0.74159564684484258</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.78406593902825283</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0</v>
+        <v>0.76009334764037906</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0</v>
+        <v>0.5084480696750755</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0</v>
+        <v>0.64430376072646722</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10393,19 +10393,19 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>0</v>
+        <v>0.50631821983697911</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="BM50" s="0">
-        <v>0</v>
+        <v>0.80114627848212294</v>
       </c>
       <c r="BN50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0</v>
+        <v>0.52172216738641741</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0</v>
+        <v>0.86672056887160609</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>0</v>
+        <v>0.7376576986004364</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>0</v>
+        <v>0.87470450449774972</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10545,10 +10545,10 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP51" s="0">
         <v>0</v>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.79502272361554849</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="BD51" s="0">
-        <v>0</v>
+        <v>0.88750973879325157</v>
       </c>
       <c r="BE51" s="0">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="BL51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10658,13 +10658,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="0">
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0.76240326314268592</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.6391745721979657</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10805,10 +10805,10 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>0</v>
+        <v>0.71369124337585632</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.98487566340195243</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
       </c>
       <c r="BN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO52" s="0">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0">
         <v>0</v>
@@ -10909,10 +10909,10 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>0</v>
+        <v>0.78254095507673083</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="0">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AO53" s="0">
-        <v>0</v>
+        <v>0.67927558859355597</v>
       </c>
       <c r="AP53" s="0">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0</v>
+        <v>0.53091051825774116</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -11067,13 +11067,13 @@
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>0</v>
+        <v>0.70082889627073786</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>0</v>
+        <v>0.57242226470386237</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.75263729153176662</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11267,13 +11267,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0</v>
+        <v>0.69778017866738651</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0</v>
+        <v>0.55457719956733753</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.94551569314556805</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
@@ -11318,10 +11318,10 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>1</v>
+        <v>0.7353682398473087</v>
       </c>
       <c r="X55" s="0">
-        <v>0</v>
+        <v>0.7526611019840983</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>0</v>
+        <v>0.87567742506355883</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.78124038049875655</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0</v>
+        <v>0.72947095651868754</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0</v>
+        <v>0.51717930652992083</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>0</v>
+        <v>0.56519129591868111</v>
       </c>
       <c r="F57" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>0</v>
+        <v>0.94885327931131902</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
       <c r="AW57" s="0">
-        <v>0</v>
+        <v>0.82379034418406205</v>
       </c>
       <c r="AX57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.85367405791061235</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="BK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.54079734375854305</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>0</v>
+        <v>0.78139291102212316</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12017,13 +12017,13 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0</v>
+        <v>0.5690727744340951</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="BN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58" s="0">
-        <v>0</v>
+        <v>0.99344752308411932</v>
       </c>
       <c r="BP58" s="0">
         <v>0</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0</v>
+        <v>0.63129596928858334</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.63076155852241533</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.52430676100109963</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>0</v>
+        <v>0.96520113658919837</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="0">
         <v>0</v>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="0">
         <v>0</v>
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.85981616376128223</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="BM60" s="0">
-        <v>0</v>
+        <v>0.99939418516841005</v>
       </c>
       <c r="BN60" s="0">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="0">
         <v>0</v>
@@ -12590,13 +12590,13 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0</v>
+        <v>0.58623139768433663</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12617,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>0</v>
+        <v>0.75766817162331279</v>
       </c>
       <c r="AS61" s="0">
         <v>0</v>
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>0</v>
+        <v>0.9578906035757061</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12763,7 +12763,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>0</v>
+        <v>0.91591350489309054</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0</v>
+        <v>0.53551568337495681</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="AX62" s="0">
-        <v>0</v>
+        <v>0.88882341507714457</v>
       </c>
       <c r="AY62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12865,13 +12865,13 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.72573739413518179</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>0</v>
+        <v>0.61617900570898021</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0</v>
+        <v>0.62469123496376155</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="0">
-        <v>0</v>
+        <v>0.74142058160877611</v>
       </c>
       <c r="U63" s="0">
         <v>0</v>
@@ -12990,10 +12990,10 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0</v>
+        <v>0.96261858944732748</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13002,10 +13002,10 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>0</v>
+        <v>0.94523997010841643</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0</v>
+        <v>0.70958117162755929</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13068,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="BE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.7373727618568493</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="0">
-        <v>0</v>
+        <v>0.87838985056890184</v>
       </c>
       <c r="Y64" s="0">
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="AG64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>0</v>
+        <v>0.87655453965051733</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13256,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="AY64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.84811101263791211</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>0</v>
+        <v>0.74262265488552059</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>0</v>
+        <v>0.92792312484257478</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0</v>
+        <v>0.77459689275795596</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13489,10 +13489,10 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>0</v>
+        <v>0.56252895397080493</v>
       </c>
       <c r="BI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>0</v>
+        <v>0.80537223510384059</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.78598040524955926</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="0">
         <v>0</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0</v>
+        <v>0.66283690146055452</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13757,16 +13757,16 @@
         <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>0</v>
+        <v>0.50034477836899338</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0</v>
+        <v>0.68641275671947666</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="AD67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="0">
         <v>0</v>
@@ -13856,7 +13856,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="0">
-        <v>0</v>
+        <v>0.99832564600732976</v>
       </c>
       <c r="AT67" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>0</v>
+        <v>0.51261331045377811</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13913,10 +13913,10 @@
         <v>0</v>
       </c>
       <c r="BL67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13933,13 +13933,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.59631321955170424</v>
       </c>
       <c r="C68" s="0">
-        <v>0</v>
+        <v>0.99126420866485132</v>
       </c>
       <c r="D68" s="0">
-        <v>0</v>
+        <v>0.78068606534354501</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>0</v>
+        <v>0.92408083034189026</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>0</v>
+        <v>0.76187051859530741</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject42.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject42.xlsx
@@ -140,7 +140,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="0">
-        <v>0.59758643600843864</v>
+        <v>0.59779730578045021</v>
       </c>
       <c r="F1" s="0">
         <v>0</v>
@@ -302,7 +302,7 @@
         <v>0</v>
       </c>
       <c r="BG1" s="0">
-        <v>0.59166539824566833</v>
+        <v>0.63129596928858334</v>
       </c>
       <c r="BH1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0.68842016031296516</v>
+        <v>0.80337072208117632</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0.53045372239846889</v>
+        <v>0.6834968814075314</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="0">
-        <v>0.57005010366781361</v>
+        <v>0.94746298503938653</v>
       </c>
       <c r="S2" s="0">
         <v>0</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.51478494820437082</v>
+        <v>0.59631321955170424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.62669929296129212</v>
+        <v>0.78405351687826141</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>0.52756837470321982</v>
+        <v>0.61617900570898021</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>0.77500077425108116</v>
+        <v>0.99126420866485132</v>
       </c>
     </row>
     <row r="4">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>0.66201967196798495</v>
+        <v>0.79230323661503865</v>
       </c>
       <c r="N4" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.8517473697415312</v>
+        <v>0.95984167792591757</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.57123557697429783</v>
+        <v>0.78326645442414777</v>
       </c>
       <c r="AN6" s="0">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.687067849583054</v>
+        <v>0.69778017866738651</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="0">
-        <v>0.65508691157727483</v>
+        <v>0.75094381675418398</v>
       </c>
       <c r="M7" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0.77895825286848464</v>
+        <v>0.91838705368758999</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.78699567362860545</v>
+        <v>0.99118797958950844</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.90681778994035156</v>
+        <v>0.97073205289174425</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.56681824668536218</v>
+        <v>0.61735360173977694</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.68778201325295907</v>
+        <v>0.78885428901921895</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>0.57447489677398234</v>
+        <v>0.76240326314268592</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>0.78434071302692332</v>
+        <v>0.92408083034189026</v>
       </c>
     </row>
     <row r="13">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.5911711930941681</v>
+        <v>0.9470720371440704</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>0.71002565883702262</v>
+        <v>0.73794405119331186</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>0.60408676539720019</v>
+        <v>0.94885327931131902</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>0.55145202669953297</v>
+        <v>0.62469123496376155</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3018,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0.56474051307046746</v>
+        <v>0.80909279966027858</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0.94173194022615414</v>
+        <v>0.96728127051647372</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="0">
-        <v>0.77866679472433553</v>
+        <v>0.89562882902271057</v>
       </c>
       <c r="M15" s="0">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="0">
-        <v>0.55440271032999877</v>
+        <v>0.72261613903606592</v>
       </c>
       <c r="AT16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0.54131217553606004</v>
+        <v>0.9578906035757061</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AV17" s="0">
-        <v>0.51485657460185164</v>
+        <v>0.97009570216586383</v>
       </c>
       <c r="AW17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.89672658565848085</v>
       </c>
       <c r="T18" s="0">
-        <v>0.83359692696490506</v>
+        <v>0.85409516032612076</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.59652659251650242</v>
+        <v>0.89672658565848085</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.77850311036455055</v>
+        <v>0.96741591517535097</v>
       </c>
       <c r="AO19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.81072969779812953</v>
+        <v>0.94551569314556805</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.85409516032612076</v>
       </c>
       <c r="S20" s="0">
-        <v>0.57360286290169815</v>
+        <v>0.99287210445768448</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.54685705934651219</v>
+        <v>0.91213886375376685</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.67645041488425806</v>
+        <v>0.75207345912277201</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="0">
-        <v>0.64283311307821944</v>
+        <v>0.74142058160877611</v>
       </c>
       <c r="BL20" s="0">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="0">
-        <v>0.81428165555701248</v>
+        <v>0.84044430975469719</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.56949788865070439</v>
+        <v>0.97193850274084381</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="0">
-        <v>0.77482416402516929</v>
+        <v>0.87283109383564639</v>
       </c>
       <c r="AS21" s="0">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.73631207421734013</v>
+        <v>0.77514875445542819</v>
       </c>
       <c r="Z22" s="0">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="AV22" s="0">
-        <v>0.69073916590907647</v>
+        <v>0.80864349320828155</v>
       </c>
       <c r="AW22" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0.65830148335971939</v>
+        <v>0.88641068953430524</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0.76616504940759766</v>
+        <v>0.82159452181616333</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="0">
-        <v>0.73863565601933034</v>
+        <v>0.98927994514252404</v>
       </c>
       <c r="AH23" s="0">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>0.56132822492234258</v>
+        <v>0.7353682398473087</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.53728381541060743</v>
+        <v>0.83661554293041607</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.58547547981760872</v>
+        <v>0.65119899852414775</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="BL24" s="0">
-        <v>0.76377590004002804</v>
+        <v>0.87838985056890184</v>
       </c>
       <c r="BM24" s="0">
         <v>0.94333611671655426</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0.5867305384925432</v>
+        <v>0.78254095507673083</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.74510408753130308</v>
+        <v>0.92826948824501754</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0.9426621410009155</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.68151341350954053</v>
+        <v>0.98985795421185951</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0.92826948824501754</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.90815273547913078</v>
+        <v>0.9426621410009155</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>0.55949712585459654</v>
+        <v>0.62390801284578123</v>
       </c>
       <c r="AQ28" s="0">
         <v>0</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>0.61768615716808517</v>
+        <v>0.96554567572919014</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0.80180640969890837</v>
+        <v>0.94059455697466121</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>0.59389452930071562</v>
+        <v>0.92306193988050789</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>0.8009054719499249</v>
+        <v>0.85343043754124626</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>0.63706106458433576</v>
+        <v>0.70082889627073786</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.56291886566277949</v>
+        <v>0.80301931061786946</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0.72772279462049894</v>
+        <v>0.96261858944732748</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>0.65673325667019333</v>
+        <v>0.92254006576397118</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -7013,7 +7013,7 @@
         <v>0.96554567572919014</v>
       </c>
       <c r="AD34" s="0">
-        <v>0.81971027623215131</v>
+        <v>0.91062598649110016</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.81387661302750325</v>
+        <v>0.84046922361874044</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>0.7530455762722077</v>
+        <v>0.94523997010841643</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0.78654805976053199</v>
+        <v>0.91627332531431427</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0.52325762973619194</v>
+        <v>0.70958117162755929</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.84906920826991072</v>
+        <v>0.98250125232807162</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0.58135084237792856</v>
+        <v>0.80537223510384059</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.58061988461737379</v>
+        <v>0.60906569935920629</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0.83932317719066007</v>
+        <v>0.96514072177198051</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.56149537992186971</v>
+        <v>0.77856605225775644</v>
       </c>
       <c r="AL39" s="0">
         <v>0.60906569935920629</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.5735290172126255</v>
+        <v>0.98817780409563472</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0.57041747846158664</v>
+        <v>0.89308908639272688</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0.50894282139021396</v>
+        <v>0.86101212977210873</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.80185803616622298</v>
+        <v>0.86730658681722239</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0.57917007187204095</v>
+        <v>0.78598040524955926</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0.68654410729100401</v>
+        <v>0.85675640030282041</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>0.77812482283434425</v>
+        <v>0.86706256649275826</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>0.5730776652231675</v>
+        <v>0.94884253355759607</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>0.50253263864357467</v>
+        <v>0.86677115201483756</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -9067,13 +9067,13 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>0.70614142965586679</v>
+        <v>0.74713085718415329</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>0.59943785823108131</v>
+        <v>0.68572042406623446</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>0.80534287320468079</v>
+        <v>0.86090870385139895</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>0.53278794254276618</v>
+        <v>0.75766817162331279</v>
       </c>
       <c r="BJ44" s="0">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>0.85048145273842735</v>
+        <v>0.95918956593122906</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="0">
-        <v>0.55234861982253913</v>
+        <v>0.59181247505603518</v>
       </c>
       <c r="AC45" s="0">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0.5261613010135151</v>
+        <v>0.84360554934918164</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="BO45" s="0">
-        <v>0.62629386120307207</v>
+        <v>0.99832564600732976</v>
       </c>
       <c r="BP45" s="0">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="0">
-        <v>0.59788017055756404</v>
+        <v>0.86569761977774073</v>
       </c>
       <c r="T46" s="0">
         <v>0</v>
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="0">
-        <v>0.73738757560700274</v>
+        <v>0.84571978618530297</v>
       </c>
       <c r="W46" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>0.51719232618605548</v>
+        <v>0.92792312484257478</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0.7141010141599452</v>
+        <v>0.73324890702731338</v>
       </c>
       <c r="Q48" s="0">
         <v>0.97009570216586383</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0.74159564684484258</v>
+        <v>0.88401793400965112</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.78406593902825283</v>
+        <v>0.80476072514140351</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="0">
-        <v>0.76009334764037906</v>
+        <v>0.82379034418406205</v>
       </c>
       <c r="BF49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.5084480696750755</v>
+        <v>0.82169789371593582</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>0.64430376072646722</v>
+        <v>0.73574079293336925</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="0">
-        <v>0.50631821983697911</v>
+        <v>0.88882341507714457</v>
       </c>
       <c r="BK50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.52172216738641741</v>
+        <v>0.97885466688809863</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>0.86672056887160609</v>
+        <v>0.87977116645278519</v>
       </c>
       <c r="K51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>0.7376576986004364</v>
+        <v>0.83493934134768955</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>0.87470450449774972</v>
+        <v>0.9294351691608016</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.6391745721979657</v>
+        <v>0.79502272361554849</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="AO53" s="0">
-        <v>0.67927558859355597</v>
+        <v>0.98355415297505355</v>
       </c>
       <c r="AP53" s="0">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0.53091051825774116</v>
+        <v>0.84009202681403949</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>0.57242226470386237</v>
+        <v>0.90522954804649713</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.75263729153176662</v>
+        <v>0.78124038049875655</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="0">
-        <v>0.55457719956733753</v>
+        <v>0.65253288402310905</v>
       </c>
       <c r="I55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0.7353682398473087</v>
       </c>
       <c r="X55" s="0">
-        <v>0.7526611019840983</v>
+        <v>0.86919225506915421</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="0">
-        <v>0.87567742506355883</v>
+        <v>0.95491857421502235</v>
       </c>
       <c r="AI55" s="0">
         <v>0</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="AM56" s="0">
-        <v>0.72947095651868754</v>
+        <v>0.73986401806688429</v>
       </c>
       <c r="AN56" s="0">
         <v>0</v>
@@ -11608,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="AY56" s="0">
-        <v>0.51717930652992083</v>
+        <v>0.88750973879325157</v>
       </c>
       <c r="AZ56" s="0">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="0">
-        <v>0.56519129591868111</v>
+        <v>0.6538216008651162</v>
       </c>
       <c r="F57" s="0">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="0">
-        <v>0.54079734375854305</v>
+        <v>0.9615317702004722</v>
       </c>
       <c r="G58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>0.78139291102212316</v>
+        <v>0.94967184082066214</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>0.5690727744340951</v>
+        <v>0.71369124337585632</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0.63076155852241533</v>
+        <v>0.98487566340195243</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.52430676100109963</v>
+        <v>0.85367405791061235</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0.58623139768433663</v>
+        <v>0.92645941357219852</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>0.91591350489309054</v>
+        <v>0.95663424672852027</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0.53551568337495681</v>
+        <v>0.6698361146453008</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.72573739413518179</v>
+        <v>0.85981616376128223</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.7373727618568493</v>
+        <v>0.84811101263791211</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="0">
-        <v>0.87655453965051733</v>
+        <v>0.9666462733597746</v>
       </c>
       <c r="AT64" s="0">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>0.74262265488552059</v>
+        <v>0.94333611671655426</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AX65" s="0">
-        <v>0.77459689275795596</v>
+        <v>0.80114627848212294</v>
       </c>
       <c r="AY65" s="0">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="BH65" s="0">
-        <v>0.56252895397080493</v>
+        <v>0.99939418516841005</v>
       </c>
       <c r="BI65" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>0.66283690146055452</v>
+        <v>0.96520113658919837</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13760,13 +13760,13 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>0.50034477836899338</v>
+        <v>0.70615433245339643</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0.68641275671947666</v>
+        <v>0.85259468441514374</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
       <c r="BF67" s="0">
-        <v>0.51261331045377811</v>
+        <v>0.99344752308411932</v>
       </c>
       <c r="BG67" s="0">
         <v>0</v>
@@ -13939,7 +13939,7 @@
         <v>0.99126420866485132</v>
       </c>
       <c r="D68" s="0">
-        <v>0.78068606534354501</v>
+        <v>0.97039622529114755</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>0.76187051859530741</v>
+        <v>0.76904217382832996</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
